--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3896719.359157947</v>
+        <v>3999516.779225599</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498525</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7211938.326473596</v>
+        <v>7178038.596209639</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>367.0175913981352</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>163.9617014521625</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,13 +715,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -835,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>110.697743773269</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>87.72036681774537</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>334.816169175785</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>249.1524003704187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1059,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>28.18795678412392</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>20.28913162716349</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>233.9232825284334</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>129.5398680316085</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247739</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414546</v>
@@ -1291,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>174.6267971598791</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>65.91951625650552</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,19 +1426,19 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>103.8784673763408</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>272.8976078885852</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187881</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1660,22 @@
         <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>139.511541534052</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>79.36266849663059</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>37.40501058442985</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>217.6866318399304</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>123.9815576456779</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>3.458642397732228</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>15.51491006411223</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>81.27859867330056</v>
+        <v>134.5665975534146</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652585</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808023</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>94.64226186542889</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3086,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308917</v>
+        <v>117.6579322793575</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652585</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972045</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972037</v>
+        <v>253.3932148259954</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002294</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>74.53917159609115</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808203</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972046</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>1.255571502167759</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808203</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>68.17501931583936</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>240.7377005646511</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1638.360256348809</v>
+        <v>1363.124011696102</v>
       </c>
       <c r="C2" t="n">
-        <v>1638.360256348809</v>
+        <v>994.1614947556907</v>
       </c>
       <c r="D2" t="n">
-        <v>1280.094557742059</v>
+        <v>635.8957961489402</v>
       </c>
       <c r="E2" t="n">
-        <v>894.3063051438144</v>
+        <v>250.107543550696</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>243.1620428014925</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>232.1299966868931</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4360,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993393</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649822</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W2" t="n">
-        <v>2788.565186649822</v>
+        <v>2513.328941997116</v>
       </c>
       <c r="X2" t="n">
-        <v>2415.099428388743</v>
+        <v>2139.863183736036</v>
       </c>
       <c r="Y2" t="n">
-        <v>2024.960096412931</v>
+        <v>1749.723851760224</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4400,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4410,10 +4412,10 @@
         <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>478.9911633238872</v>
+        <v>381.6654861422326</v>
       </c>
       <c r="C4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4519,19 +4521,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251691</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X4" t="n">
-        <v>478.9911633238872</v>
+        <v>651.920382101508</v>
       </c>
       <c r="Y4" t="n">
-        <v>478.9911633238872</v>
+        <v>563.3139509724723</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.586939522201</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1914.140475048883</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
         <v>66.51211643218343</v>
@@ -4568,13 +4570,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066532</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X5" t="n">
-        <v>2257.256030805452</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>2005.586939522201</v>
+        <v>2283.102991989294</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4637,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,19 +4649,19 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>945.3964936596652</v>
+        <v>794.6070935315613</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1898.821864468166</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1898.821864468166</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1898.821864468166</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1609.718997593809</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>1355.034509387922</v>
+        <v>1204.245109259818</v>
       </c>
       <c r="W7" t="n">
-        <v>1355.034509387922</v>
+        <v>1204.245109259818</v>
       </c>
       <c r="X7" t="n">
-        <v>1127.044958489905</v>
+        <v>976.255558361801</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.044958489905</v>
+        <v>976.255558361801</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1879.829578210443</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1510.867061270031</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1152.60136266328</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>766.8131100650362</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>759.8676093158327</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>344.7951591608292</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.33740552049</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.33740552049</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.33740552049</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250376</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2656.568750250376</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2266.429418274564</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,70 +4859,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158138</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>509.7358901245718</v>
+        <v>777.020896318616</v>
       </c>
       <c r="C10" t="n">
-        <v>509.7358901245718</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="D10" t="n">
-        <v>359.6192507122361</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E10" t="n">
-        <v>359.6192507122361</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218346</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764919</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581906</v>
@@ -4978,7 +4980,7 @@
         <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
         <v>1927.294548088493</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242374</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368017</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V10" t="n">
-        <v>958.5180201661193</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="W10" t="n">
-        <v>958.5180201661193</v>
+        <v>1071.5958171727</v>
       </c>
       <c r="X10" t="n">
-        <v>730.528469268102</v>
+        <v>843.6062662746822</v>
       </c>
       <c r="Y10" t="n">
-        <v>509.7358901245718</v>
+        <v>777.020896318616</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5057,10 +5059,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398594</v>
@@ -5118,28 +5120,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400717</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5224,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2104.263230450254</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1560.161572207406</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068011</v>
@@ -5309,19 +5311,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5354,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>554.5813165460164</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C16" t="n">
-        <v>385.6451336181095</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D16" t="n">
-        <v>235.5284942057738</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5467,19 +5469,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1897.296768897751</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1642.612280691864</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,52 +5503,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.6905094135296</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.222762528164</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.538274322277</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.121104285317</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.131553387299</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.338974243769</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5732,40 +5734,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5838,13 +5840,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400712</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E22" t="n">
-        <v>365.9405071576781</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>219.0505596597677</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="23">
@@ -5978,34 +5980,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6066,25 +6068,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K24" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.52840832642</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1802.364528928005</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>3189.272672481338</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>3023.484406741617</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>4471.231687421535</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>4182.156460765733</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>3927.471972559846</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>3638.054802522885</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>3410.065251624868</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>3189.272672481338</v>
       </c>
     </row>
     <row r="26">
@@ -6218,49 +6220,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6297,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>228.9331431646415</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179085</v>
+        <v>2940.5785039035</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5477693179085</v>
+        <v>2771.642320975594</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4311299055728</v>
+        <v>2621.525681563258</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5180363231797</v>
+        <v>2473.612587980865</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6280888252693</v>
+        <v>2473.612587980865</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>3571.009098775287</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>3343.01954787727</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>3122.22696873374</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6503,7 +6505,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>2257.062161108198</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>2854.44064873475</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2978.493192213312</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>2834.086956247061</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>2708.500263796382</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>2585.117117175645</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>2462.757116639391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>2320.090964315927</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2202.909080119781</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2145.352323729351</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2249.630143176794</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2535.361206719452</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>2949.801601912512</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3395.853105660666</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3837.304778337793</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4230.875860063898</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4547.593116654575</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4648.317395612654</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4489.992508229215</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4294.920990213812</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4030.375710519666</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3800.221169275435</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3535.33394620013</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>3331.874342263769</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>3135.611710081896</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,37 +6715,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>379.8591585748671</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6919,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7014,22 +7016,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311322</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973195</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,25 +7253,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>169.1087555692761</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>169.1087555692761</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7494,22 +7496,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928006</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O42" t="n">
-        <v>2354.274259167293</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>633.992644467967</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>486.0795508855739</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7673,10 +7675,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7688,7 +7690,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O45" t="n">
-        <v>2223.769289033212</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2311.700279152292</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2544.961939527175</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>559.7594328861248</v>
+        <v>2824.769373306003</v>
       </c>
       <c r="C46" t="n">
-        <v>390.823249958218</v>
+        <v>2655.833190378096</v>
       </c>
       <c r="D46" t="n">
-        <v>240.7066105458822</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U46" t="n">
-        <v>1734.29168600076</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V46" t="n">
-        <v>1479.607197794873</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W46" t="n">
-        <v>1190.190027757912</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X46" t="n">
-        <v>962.2004768598947</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="Y46" t="n">
-        <v>741.4078977163646</v>
+        <v>3006.417838136243</v>
       </c>
     </row>
   </sheetData>
@@ -23419,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>44.7370056418716</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>13.28686650065896</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40.32043864788525</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>206.8218058926136</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>111.2104624337825</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>68.49784254931379</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>41.54258064659093</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>215.1260109543626</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>151.7319110345156</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>84.24553961896828</v>
+        <v>30.95754073885422</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>27.76311574357379</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25366,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>32.7912595632487</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>6.726664722474382</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>144.1654765207635</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>80.44045370237299</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>45.44677382459304</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>618168.7730327632</v>
+        <v>618168.7730327633</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>618168.7730327632</v>
+        <v>618168.7730327633</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>618168.7730327632</v>
+        <v>618168.7730327633</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>618168.7730327633</v>
+        <v>618168.7730327632</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>628590.1506634712</v>
+        <v>618168.7730327632</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>628590.1506634712</v>
+        <v>618168.7730327632</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>628590.1506634712</v>
+        <v>618168.7730327632</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>628590.1506634712</v>
+        <v>618168.7730327632</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>628590.1506634712</v>
+        <v>618168.7730327632</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.599690006</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900058</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.5996900058</v>
       </c>
       <c r="H2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900067</v>
       </c>
       <c r="J2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="K2" t="n">
+        <v>807146.5996900059</v>
+      </c>
+      <c r="L2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="M2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="N2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="O2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="P2" t="n">
         <v>807146.5996900063</v>
-      </c>
-      <c r="K2" t="n">
-        <v>821041.7698642847</v>
-      </c>
-      <c r="L2" t="n">
-        <v>821041.769864285</v>
-      </c>
-      <c r="M2" t="n">
-        <v>821041.769864284</v>
-      </c>
-      <c r="N2" t="n">
-        <v>821041.769864284</v>
-      </c>
-      <c r="O2" t="n">
-        <v>821041.7698642848</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.5996900061</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972777</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363176</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,19 +26420,19 @@
         <v>92793.84288319401</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.842883194</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319388</v>
+        <v>92793.84288319398</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184283</v>
+        <v>13606.80811184266</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184272</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184275</v>
@@ -26439,22 +26441,22 @@
         <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.8081118428</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>21597.66737493621</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>21597.66737493625</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
-        <v>21597.6673749362</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>21597.66737493621</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>21597.6673749362</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184274</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-708430.7593078964</v>
+        <v>-708430.7593078968</v>
       </c>
       <c r="C6" t="n">
+        <v>620313.986419696</v>
+      </c>
+      <c r="D6" t="n">
         <v>620313.9864196959</v>
       </c>
-      <c r="D6" t="n">
-        <v>620313.9864196961</v>
-      </c>
       <c r="E6" t="n">
-        <v>367004.7999469012</v>
+        <v>367004.799946901</v>
       </c>
       <c r="F6" t="n">
         <v>692417.261754256</v>
       </c>
       <c r="G6" t="n">
-        <v>692417.2617542568</v>
+        <v>692417.261754256</v>
       </c>
       <c r="H6" t="n">
         <v>692417.2617542564</v>
       </c>
       <c r="I6" t="n">
-        <v>692417.2617542564</v>
+        <v>692417.2617542573</v>
       </c>
       <c r="J6" t="n">
-        <v>474886.059356979</v>
+        <v>474886.0593569786</v>
       </c>
       <c r="K6" t="n">
-        <v>676852.2686418013</v>
+        <v>692417.2617542561</v>
       </c>
       <c r="L6" t="n">
-        <v>696279.9866354334</v>
+        <v>692417.2617542563</v>
       </c>
       <c r="M6" t="n">
-        <v>611224.9586999207</v>
+        <v>607362.2338187445</v>
       </c>
       <c r="N6" t="n">
-        <v>696279.9866354323</v>
+        <v>692417.2617542563</v>
       </c>
       <c r="O6" t="n">
-        <v>696279.9866354333</v>
+        <v>692417.2617542562</v>
       </c>
       <c r="P6" t="n">
-        <v>692417.2617542563</v>
+        <v>692417.2617542567</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26802,7 +26804,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>39.85845434357628</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>130.6460629351579</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,13 +27435,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>115.0119116157682</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>130.8642865343494</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>19.86687244489792</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>137.0855382856349</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>60.74419588592342</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>231.8485116966645</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>60.68448185888704</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>240.1912326468605</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>77.51084616394891</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>152.6651370955893</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.535997688741892e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-6.535997688741892e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-6.535997688741892e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-6.535997688741892e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-6.535997688741892e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.535997688741892e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.535997688741892e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.535997688741892e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.535997688741892e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.535997688741892e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.535997688741892e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.535997688741892e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.535997688741892e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.535997688741892e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,13 +28326,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-6.535997688741892e-14</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-6.535997688741892e-14</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28339,10 +28341,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.436605723143569e-12</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-6.535997688741892e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-6.535997688741892e-14</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28384,10 +28386,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-6.535997688741892e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-6.535997688741892e-14</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28567,19 +28569,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-6.535997688741892e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-6.535997688741892e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-6.535997688741892e-14</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-6.535997688741892e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28618,19 +28620,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-6.535997688741892e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-6.535997688741892e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-6.535997688741892e-14</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-6.535997688741892e-14</v>
       </c>
     </row>
     <row r="18">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31513,10 +31515,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
         <v>168.89895979748</v>
@@ -31525,31 +31527,31 @@
         <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
         <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
         <v>19.17787942451121</v>
@@ -31598,43 +31600,43 @@
         <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752261</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837908</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,19 +31679,19 @@
         <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742022</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
         <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
         <v>300.7247737883116</v>
@@ -31704,13 +31706,13 @@
         <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
         <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31838,7 +31840,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
@@ -31847,13 +31849,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753698</v>
+        <v>491.1355220041054</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -31862,7 +31864,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32020,7 +32022,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32072,22 +32074,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>161.7871425275301</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>379.4203056753698</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
@@ -32099,7 +32101,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>493.6049778318539</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32786,37 +32788,37 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>237.355789154363</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -33020,28 +33022,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>263.3189197138078</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33260,13 +33262,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338203</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33281,10 +33283,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33442,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33497,10 +33499,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33521,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,7 +33736,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,16 +33745,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>353.3934907042774</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33971,19 +33973,19 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M39" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33994,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>297.7596336167232</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34390,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34463,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>429.5828357723605</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>153.8606640989137</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35173,28 +35175,28 @@
         <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193721</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004575</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701982</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,13 +35497,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533515</v>
+        <v>349.0014880820871</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35510,7 +35512,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>23.94570355317105</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>237.2862717533515</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
@@ -35747,7 +35749,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>359.6305704175236</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>94.75954470991852</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36668,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>25.73094315394616</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36929,10 +36931,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986646</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,16 +37393,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>219.4190832899471</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986646</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M39" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37642,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>163.785226202393</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38111,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>295.6084283580303</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3999516.779225599</v>
+        <v>3995504.169211607</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7178038.596209639</v>
+        <v>7178038.596209637</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>163.9617014521625</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>36.80199454068539</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>241.2617668068158</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>87.72036681774537</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>105.6307852904534</v>
       </c>
       <c r="D5" t="n">
-        <v>334.816169175785</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1059,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>20.28913162716349</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1150,10 +1150,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>109.6870817625059</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>129.5398680316085</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>98.12640288586233</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>65.91951625650552</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,16 +1378,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576143</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>272.8976078885852</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1615,16 +1615,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187881</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>79.36266849663059</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>37.40501058442985</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>113.5413580759702</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.458642397732228</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>15.51491006411223</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>134.5665975534146</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>94.64226186542889</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>117.6579322793575</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>253.3932148259954</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>74.53917159609115</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>1.255571502167759</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>68.17501931583936</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.124011696102</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>994.1614947556907</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>635.8957961489402</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>250.107543550696</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>243.1620428014925</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>232.1299966868931</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2866.09759726723</v>
+        <v>2718.633196935045</v>
       </c>
       <c r="W2" t="n">
-        <v>2513.328941997116</v>
+        <v>2718.633196935045</v>
       </c>
       <c r="X2" t="n">
-        <v>2139.863183736036</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.723851760224</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>381.6654861422326</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>212.7293032143257</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143257</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143257</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143257</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036486</v>
+        <v>1683.595793738173</v>
       </c>
       <c r="W4" t="n">
-        <v>879.9099329995254</v>
+        <v>1394.178623701213</v>
       </c>
       <c r="X4" t="n">
-        <v>651.920382101508</v>
+        <v>1166.189072803195</v>
       </c>
       <c r="Y4" t="n">
-        <v>563.3139509724723</v>
+        <v>945.3964936596652</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2283.102991989294</v>
+        <v>1381.278680221566</v>
       </c>
       <c r="C5" t="n">
-        <v>1914.140475048883</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250374</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2283.102991989294</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y5" t="n">
-        <v>2283.102991989294</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>794.6070935315613</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>625.6709106036544</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1204.245109259818</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1204.245109259818</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>976.255558361801</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>976.255558361801</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>77.54416254678283</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450755</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>1941.127034633561</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>1941.127034633561</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4859,70 +4859,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.020896318616</v>
+        <v>463.6594280995005</v>
       </c>
       <c r="C10" t="n">
-        <v>608.0847133907091</v>
+        <v>463.6594280995005</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9680739783734</v>
+        <v>313.5427886871647</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>165.6296951047716</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.697475415547</v>
+        <v>1638.191681214135</v>
       </c>
       <c r="V10" t="n">
-        <v>1361.01298720966</v>
+        <v>1383.507193008248</v>
       </c>
       <c r="W10" t="n">
-        <v>1071.5958171727</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X10" t="n">
-        <v>843.6062662746822</v>
+        <v>866.1004720732703</v>
       </c>
       <c r="Y10" t="n">
-        <v>777.020896318616</v>
+        <v>645.3078929297402</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356194</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2104.263230450254</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>1849.578742244367</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1560.161572207406</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1332.172021309389</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.379442165859</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
@@ -5281,13 +5281,13 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5296,7 +5296,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>119.2902967703784</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1897.296768897751</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1642.612280691864</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1353.195110654903</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,28 +5503,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851671</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C19" t="n">
-        <v>527.7722521572603</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D19" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,34 +5691,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2332.274843099483</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>2043.199616443681</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1788.515128237794</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>1271.108407302816</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>1050.315828159286</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408905</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6001,7 +6001,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1802.364528928005</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3189.272672481338</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741617</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3927.471972559846</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3638.054802522885</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>3410.065251624868</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>3189.272672481338</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>228.9331431646415</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2940.5785039035</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>2771.642320975594</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>2621.525681563258</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>2473.612587980865</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
-        <v>2473.612587980865</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673937</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>4115.110757018135</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>3860.426268812248</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>3571.009098775287</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>3343.01954787727</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>3122.22696873374</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6454,10 +6454,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2257.062161108198</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>2854.44064873475</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3482.038612289356</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>4033.948342528643</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.7084350851671</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>527.7722521572603</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>527.7722521572603</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E34" t="n">
-        <v>379.8591585748671</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6928,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0670414349511</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N36" t="n">
-        <v>1550.665004989558</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>2102.574735228845</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>801.6605733532803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1721.508338262028</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1721.508338262028</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1432.091168225067</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1204.10161732705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>983.30903818352</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.2707707770319</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>634.334587849125</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>484.2179484367892</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>336.3048548543961</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>336.3048548543961</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>169.1087555692761</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>169.1087555692761</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.9192356072716</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>802.9288273958739</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>633.992644467967</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>633.992644467967</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>486.0795508855739</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510509</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304622</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369644</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.5772922261136</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2311.700279152292</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2544.961939527175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2824.769373306003</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>2655.833190378096</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4507.978318053498</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>4288.376853076439</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>3999.301626420637</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>3744.61713821475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>3455.19996817779</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>3227.210417279773</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>3006.417838136243</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>13.28686650065896</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>206.8218058926136</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>111.2104624337825</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>103.8640922513181</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>215.1260109543626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>151.7319110345156</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>30.95754073885422</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>27.76311574357379</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>32.7912595632487</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>6.726664722474382</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>144.1654765207635</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>10.85445046951749</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>80.44045370237299</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>618168.7730327633</v>
+        <v>618168.7730327632</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>618168.7730327632</v>
+        <v>618168.7730327633</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>618168.7730327633</v>
+        <v>618168.7730327632</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>618168.7730327633</v>
+        <v>618168.7730327632</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>618168.7730327632</v>
+        <v>618168.7730327633</v>
       </c>
     </row>
     <row r="12">
@@ -26319,31 +26319,31 @@
         <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="F2" t="n">
         <v>807146.5996900058</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900058</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.5996900067</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="J2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900066</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="M2" t="n">
         <v>807146.5996900061</v>
@@ -26352,7 +26352,7 @@
         <v>807146.5996900061</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="P2" t="n">
         <v>807146.5996900063</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.897497092315462e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972777</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319413</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.842883194</v>
+        <v>92793.8428831941</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.84288319416</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184284</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184266</v>
+        <v>13606.80811184276</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184272</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="N4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-708430.7593078968</v>
+        <v>-708430.7593078965</v>
       </c>
       <c r="C6" t="n">
-        <v>620313.986419696</v>
+        <v>620313.9864196959</v>
       </c>
       <c r="D6" t="n">
-        <v>620313.9864196959</v>
+        <v>620313.9864196961</v>
       </c>
       <c r="E6" t="n">
-        <v>367004.799946901</v>
+        <v>366657.4206925438</v>
       </c>
       <c r="F6" t="n">
-        <v>692417.261754256</v>
+        <v>692069.8824998986</v>
       </c>
       <c r="G6" t="n">
-        <v>692417.261754256</v>
+        <v>692069.8824998992</v>
       </c>
       <c r="H6" t="n">
-        <v>692417.2617542564</v>
+        <v>692069.8824998997</v>
       </c>
       <c r="I6" t="n">
-        <v>692417.2617542573</v>
+        <v>692069.8824998995</v>
       </c>
       <c r="J6" t="n">
-        <v>474886.0593569786</v>
+        <v>474538.6801026221</v>
       </c>
       <c r="K6" t="n">
-        <v>692417.2617542561</v>
+        <v>692069.8824998998</v>
       </c>
       <c r="L6" t="n">
-        <v>692417.2617542563</v>
+        <v>692069.8824998996</v>
       </c>
       <c r="M6" t="n">
-        <v>607362.2338187445</v>
+        <v>607014.8545643875</v>
       </c>
       <c r="N6" t="n">
-        <v>692417.2617542563</v>
+        <v>692069.8824998994</v>
       </c>
       <c r="O6" t="n">
-        <v>692417.2617542562</v>
+        <v>692069.8824998997</v>
       </c>
       <c r="P6" t="n">
-        <v>692417.2617542567</v>
+        <v>692069.8824998996</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26965,17 +26965,17 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483757</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>278.1987997483754</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>130.6460629351579</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>290.9502639294495</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>10.87587651701224</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>130.8642865343494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>259.6421064805542</v>
       </c>
       <c r="D5" t="n">
-        <v>19.86687244489792</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>231.8485116966645</v>
+        <v>94.35543628911122</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>218.065176707629</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>240.1912326468605</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>47.29464513706891</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>152.6651370955893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.535997688741892e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.535997688741892e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.535997688741892e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.535997688741892e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>-6.535997688741892e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.535997688741892e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>-6.535997688741892e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-6.535997688741892e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-6.535997688741892e-14</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="U11" t="n">
-        <v>-6.535997688741892e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-6.535997688741892e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-6.535997688741892e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-6.535997688741892e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-6.535997688741892e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.535997688741892e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-6.535997688741892e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.436605723143569e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.535997688741892e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,19 +28377,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-6.535997688741892e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>-6.535997688741892e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>-6.535997688741892e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28569,19 +28569,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.535997688741892e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-6.535997688741892e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-6.535997688741892e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.535997688741892e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28617,22 +28617,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>-6.535997688741892e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-6.535997688741892e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>-6.535997688741892e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-6.535997688741892e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970261</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>491.1355220041054</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32022,7 +32022,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32077,13 +32077,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>161.7871425275301</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,37 +32311,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P18" t="n">
-        <v>493.6049778318539</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,40 +32785,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>237.355789154363</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>263.3189197138078</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,25 +33259,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338203</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33444,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,19 +33733,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33754,13 +33754,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>353.3934907042774</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>153.8606640989137</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525818</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>349.0014880820871</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>23.94570355317105</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P18" t="n">
-        <v>359.6305704175236</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>94.75954470991852</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>136.4812930471411</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394616</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37402,13 +37402,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>219.4190832899471</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>8.181160134949776</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3995504.169211607</v>
+        <v>3997264.699514394</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>36.80199454068539</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>108.9812949757285</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>241.2617668068158</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>105.6307852904534</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>218.8748435506837</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347168</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>297.9986308222593</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>109.6870817625059</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>98.12640288586233</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>238.917193068544</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1423,7 +1423,7 @@
         <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576143</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>40.57972681915209</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1615,10 +1615,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1660,13 +1660,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>113.5413580759702</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>130.732365546955</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>19.91555826189057</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>55.5207962406042</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2718.633196935045</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W2" t="n">
-        <v>2718.633196935045</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.167438673965</v>
+        <v>2841.849394875187</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.3964936596652</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1683.595793738173</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W4" t="n">
-        <v>1394.178623701213</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>1166.189072803195</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>945.3964936596652</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221566</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.0178522615</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285688</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1491.569348694471</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>764.3411331473092</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>378.5528805490649</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678283</v>
+        <v>77.54416254678284</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939507</v>
@@ -4825,31 +4825,31 @@
         <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="9">
@@ -4877,10 +4877,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228006</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995005</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
-        <v>463.6594280995005</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>313.5427886871647</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>165.6296951047716</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
         <v>111.6347488791189</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214135</v>
+        <v>1685.964050039457</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008248</v>
+        <v>1431.27956183357</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971288</v>
+        <v>1141.86239179661</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732703</v>
+        <v>913.8728408985925</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297402</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="11">
@@ -5041,13 +5041,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5056,13 +5056,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5071,7 +5071,7 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5232,19 +5232,19 @@
         <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5269,49 +5269,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803938</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5509,49 +5509,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>868.6673633290468</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>699.7311804011399</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2332.274843099483</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2043.199616443681</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1788.515128237794</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1271.108407302816</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1050.315828159286</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5752,25 +5752,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851783</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5977,25 +5977,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6007,10 +6007,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6126,25 +6126,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,19 +6171,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
         <v>1202.091371290588</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E31" t="n">
         <v>631.7012443408906</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2314.910189088387</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>2095.308724111328</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1806.233497455525</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>813.3497091711304</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>113.9333885650331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>113.9333885650331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -7086,7 +7086,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7180,13 +7180,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>185.1299285698851</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>103.8640922513181</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>50.29392045468958</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.85445046951749</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>618168.7730327632</v>
+        <v>618168.7730327633</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>618168.7730327633</v>
+        <v>618168.7730327632</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>618168.7730327632</v>
+        <v>618168.7730327633</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>618168.7730327633</v>
+        <v>618168.7730327632</v>
       </c>
     </row>
     <row r="12">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642833</v>
@@ -26325,25 +26325,25 @@
         <v>807146.5996900062</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900058</v>
+        <v>807146.599690006</v>
       </c>
       <c r="G2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="H2" t="n">
         <v>807146.5996900063</v>
       </c>
-      <c r="H2" t="n">
-        <v>807146.5996900061</v>
-      </c>
       <c r="I2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="J2" t="n">
         <v>807146.5996900063</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.5996900066</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="M2" t="n">
         <v>807146.5996900061</v>
@@ -26352,7 +26352,7 @@
         <v>807146.5996900061</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="P2" t="n">
         <v>807146.5996900063</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>4.897497092315462e-10</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319413</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="C4" t="n">
+        <v>92793.84288319403</v>
+      </c>
+      <c r="D4" t="n">
         <v>92793.8428831941</v>
       </c>
-      <c r="D4" t="n">
-        <v>92793.84288319416</v>
-      </c>
       <c r="E4" t="n">
-        <v>13606.80811184284</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184276</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184274</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-708430.7593078965</v>
+        <v>-708430.7593078966</v>
       </c>
       <c r="C6" t="n">
-        <v>620313.9864196959</v>
+        <v>620313.986419696</v>
       </c>
       <c r="D6" t="n">
-        <v>620313.9864196961</v>
+        <v>620313.9864196965</v>
       </c>
       <c r="E6" t="n">
-        <v>366657.4206925438</v>
+        <v>366970.0620214653</v>
       </c>
       <c r="F6" t="n">
-        <v>692069.8824998986</v>
+        <v>692382.5238288202</v>
       </c>
       <c r="G6" t="n">
-        <v>692069.8824998992</v>
+        <v>692382.5238288209</v>
       </c>
       <c r="H6" t="n">
-        <v>692069.8824998997</v>
+        <v>692382.5238288209</v>
       </c>
       <c r="I6" t="n">
-        <v>692069.8824998995</v>
+        <v>692382.5238288208</v>
       </c>
       <c r="J6" t="n">
-        <v>474538.6801026221</v>
+        <v>474851.3214315432</v>
       </c>
       <c r="K6" t="n">
-        <v>692069.8824998998</v>
+        <v>692382.523828821</v>
       </c>
       <c r="L6" t="n">
-        <v>692069.8824998996</v>
+        <v>692382.5238288208</v>
       </c>
       <c r="M6" t="n">
-        <v>607014.8545643875</v>
+        <v>607327.4958933088</v>
       </c>
       <c r="N6" t="n">
-        <v>692069.8824998994</v>
+        <v>692382.5238288207</v>
       </c>
       <c r="O6" t="n">
-        <v>692069.8824998997</v>
+        <v>692382.5238288209</v>
       </c>
       <c r="P6" t="n">
-        <v>692069.8824998996</v>
+        <v>692382.5238288209</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022924</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022922</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>290.9502639294495</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>277.2566436803251</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>10.87587651701224</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>259.6421064805542</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>108.8774149194512</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>94.35543628911122</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>108.8774149194522</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396202</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>218.065176707629</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>47.29464513706891</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>47.29464513706893</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28098,13 +28098,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28380,13 +28380,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28617,13 +28617,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
